--- a/Prices/dns/dns--Проектор--Mar-25--0.xlsx
+++ b/Prices/dns/dns--Проектор--Mar-25--0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$193</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="570">
   <si>
     <t>Name</t>
   </si>
@@ -1703,9 +1706,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>1930</t>
   </si>
   <si>
     <t>4</t>
@@ -1804,8 +1804,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1813,9 +1813,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1853,7 +1853,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1923,7 +1923,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2099,7 +2099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2472,9 +2474,6 @@
       <c r="K11" t="s">
         <v>558</v>
       </c>
-      <c r="L11" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -2571,9 +2570,6 @@
       <c r="K14" t="s">
         <v>558</v>
       </c>
-      <c r="L14" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -2706,7 +2702,7 @@
         <v>558</v>
       </c>
       <c r="L18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2776,7 +2772,7 @@
         <v>558</v>
       </c>
       <c r="L20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2878,7 +2874,7 @@
         <v>558</v>
       </c>
       <c r="L23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2976,9 +2972,6 @@
       <c r="K26" t="s">
         <v>558</v>
       </c>
-      <c r="L26" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
@@ -3238,9 +3231,6 @@
       <c r="K34" t="s">
         <v>558</v>
       </c>
-      <c r="L34" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
@@ -3375,9 +3365,6 @@
       <c r="K38" t="s">
         <v>558</v>
       </c>
-      <c r="L38" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
@@ -3582,9 +3569,6 @@
       <c r="K44" t="s">
         <v>558</v>
       </c>
-      <c r="L44" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
@@ -3617,9 +3601,6 @@
       <c r="K45" t="s">
         <v>558</v>
       </c>
-      <c r="L45" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
@@ -3652,9 +3633,6 @@
       <c r="K46" t="s">
         <v>558</v>
       </c>
-      <c r="L46" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
@@ -3687,9 +3665,6 @@
       <c r="K47" t="s">
         <v>558</v>
       </c>
-      <c r="L47" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
@@ -3757,9 +3732,6 @@
       <c r="K49" t="s">
         <v>558</v>
       </c>
-      <c r="L49" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
@@ -3827,9 +3799,6 @@
       <c r="K51" t="s">
         <v>558</v>
       </c>
-      <c r="L51" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
@@ -3926,9 +3895,6 @@
       <c r="K54" t="s">
         <v>558</v>
       </c>
-      <c r="L54" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
@@ -3994,7 +3960,7 @@
         <v>558</v>
       </c>
       <c r="L56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4392,9 +4358,6 @@
       <c r="K68" t="s">
         <v>558</v>
       </c>
-      <c r="L68" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
@@ -4491,9 +4454,6 @@
       <c r="K71" t="s">
         <v>558</v>
       </c>
-      <c r="L71" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
@@ -4527,7 +4487,7 @@
         <v>558</v>
       </c>
       <c r="L72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4766,7 +4726,7 @@
         <v>558</v>
       </c>
       <c r="L79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4937,9 +4897,6 @@
       <c r="K84" t="s">
         <v>558</v>
       </c>
-      <c r="L84" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
@@ -5004,9 +4961,6 @@
       <c r="K86" t="s">
         <v>558</v>
       </c>
-      <c r="L86" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
@@ -5040,7 +4994,7 @@
         <v>558</v>
       </c>
       <c r="L87" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5110,7 +5064,7 @@
         <v>558</v>
       </c>
       <c r="L89" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5144,9 +5098,6 @@
       <c r="K90" t="s">
         <v>558</v>
       </c>
-      <c r="L90" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
@@ -5246,9 +5197,6 @@
       <c r="K93" t="s">
         <v>558</v>
       </c>
-      <c r="L93" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
@@ -5317,7 +5265,7 @@
         <v>558</v>
       </c>
       <c r="L95" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5387,7 +5335,7 @@
         <v>558</v>
       </c>
       <c r="L97" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5485,9 +5433,6 @@
       <c r="K100" t="s">
         <v>558</v>
       </c>
-      <c r="L100" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
@@ -5520,9 +5465,6 @@
       <c r="K101" t="s">
         <v>558</v>
       </c>
-      <c r="L101" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
@@ -5555,9 +5497,6 @@
       <c r="K102" t="s">
         <v>558</v>
       </c>
-      <c r="L102" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
@@ -5590,9 +5529,6 @@
       <c r="K103" t="s">
         <v>558</v>
       </c>
-      <c r="L103" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
@@ -5625,9 +5561,6 @@
       <c r="K104" t="s">
         <v>558</v>
       </c>
-      <c r="L104" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
@@ -5660,9 +5593,6 @@
       <c r="K105" t="s">
         <v>558</v>
       </c>
-      <c r="L105" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
@@ -5695,9 +5625,6 @@
       <c r="K106" t="s">
         <v>558</v>
       </c>
-      <c r="L106" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
@@ -5731,7 +5658,7 @@
         <v>558</v>
       </c>
       <c r="L107" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5797,9 +5724,6 @@
       <c r="K109" t="s">
         <v>558</v>
       </c>
-      <c r="L109" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
@@ -5864,9 +5788,6 @@
       <c r="K111" t="s">
         <v>558</v>
       </c>
-      <c r="L111" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
@@ -5934,9 +5855,6 @@
       <c r="K113" t="s">
         <v>558</v>
       </c>
-      <c r="L113" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
@@ -5970,7 +5888,7 @@
         <v>558</v>
       </c>
       <c r="L114" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6004,9 +5922,6 @@
       <c r="K115" t="s">
         <v>558</v>
       </c>
-      <c r="L115" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
@@ -6039,9 +5954,6 @@
       <c r="K116" t="s">
         <v>558</v>
       </c>
-      <c r="L116" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
@@ -6074,9 +5986,6 @@
       <c r="K117" t="s">
         <v>558</v>
       </c>
-      <c r="L117" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
@@ -6109,9 +6018,6 @@
       <c r="K118" t="s">
         <v>558</v>
       </c>
-      <c r="L118" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
@@ -6144,9 +6050,6 @@
       <c r="K119" t="s">
         <v>558</v>
       </c>
-      <c r="L119" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
@@ -6179,9 +6082,6 @@
       <c r="K120" t="s">
         <v>558</v>
       </c>
-      <c r="L120" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
@@ -6214,9 +6114,6 @@
       <c r="K121" t="s">
         <v>558</v>
       </c>
-      <c r="L121" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1">
@@ -6249,9 +6146,6 @@
       <c r="K122" t="s">
         <v>558</v>
       </c>
-      <c r="L122" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
@@ -6316,9 +6210,6 @@
       <c r="K124" t="s">
         <v>558</v>
       </c>
-      <c r="L124" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
@@ -6351,9 +6242,6 @@
       <c r="K125" t="s">
         <v>558</v>
       </c>
-      <c r="L125" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
@@ -6418,9 +6306,6 @@
       <c r="K127" t="s">
         <v>558</v>
       </c>
-      <c r="L127" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
@@ -6584,9 +6469,6 @@
       <c r="K132" t="s">
         <v>558</v>
       </c>
-      <c r="L132" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
@@ -6619,9 +6501,6 @@
       <c r="K133" t="s">
         <v>558</v>
       </c>
-      <c r="L133" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
@@ -6689,9 +6568,6 @@
       <c r="K135" t="s">
         <v>558</v>
       </c>
-      <c r="L135" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
@@ -6724,9 +6600,6 @@
       <c r="K136" t="s">
         <v>558</v>
       </c>
-      <c r="L136" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
@@ -6759,9 +6632,6 @@
       <c r="K137" t="s">
         <v>558</v>
       </c>
-      <c r="L137" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1">
@@ -6794,9 +6664,6 @@
       <c r="K138" t="s">
         <v>558</v>
       </c>
-      <c r="L138" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1">
@@ -6829,9 +6696,6 @@
       <c r="K139" t="s">
         <v>558</v>
       </c>
-      <c r="L139" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1">
@@ -6864,9 +6728,6 @@
       <c r="K140" t="s">
         <v>558</v>
       </c>
-      <c r="L140" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
@@ -6995,9 +6856,6 @@
       <c r="K144" t="s">
         <v>558</v>
       </c>
-      <c r="L144" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1">
@@ -7065,9 +6923,6 @@
       <c r="K146" t="s">
         <v>558</v>
       </c>
-      <c r="L146" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1">
@@ -7100,9 +6955,6 @@
       <c r="K147" t="s">
         <v>558</v>
       </c>
-      <c r="L147" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
@@ -7135,9 +6987,6 @@
       <c r="K148" t="s">
         <v>558</v>
       </c>
-      <c r="L148" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
@@ -7170,9 +7019,6 @@
       <c r="K149" t="s">
         <v>558</v>
       </c>
-      <c r="L149" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1">
@@ -7237,9 +7083,6 @@
       <c r="K151" t="s">
         <v>558</v>
       </c>
-      <c r="L151" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1">
@@ -7272,9 +7115,6 @@
       <c r="K152" t="s">
         <v>558</v>
       </c>
-      <c r="L152" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1">
@@ -7342,9 +7182,6 @@
       <c r="K154" t="s">
         <v>558</v>
       </c>
-      <c r="L154" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1">
@@ -7377,9 +7214,6 @@
       <c r="K155" t="s">
         <v>558</v>
       </c>
-      <c r="L155" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1">
@@ -7444,9 +7278,6 @@
       <c r="K157" t="s">
         <v>558</v>
       </c>
-      <c r="L157" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1">
@@ -7514,9 +7345,6 @@
       <c r="K159" t="s">
         <v>558</v>
       </c>
-      <c r="L159" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1">
@@ -7549,9 +7377,6 @@
       <c r="K160" t="s">
         <v>558</v>
       </c>
-      <c r="L160" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="1">
@@ -7584,9 +7409,6 @@
       <c r="K161" t="s">
         <v>558</v>
       </c>
-      <c r="L161" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="1">
@@ -7619,9 +7441,6 @@
       <c r="K162" t="s">
         <v>558</v>
       </c>
-      <c r="L162" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="1">
@@ -7654,9 +7473,6 @@
       <c r="K163" t="s">
         <v>558</v>
       </c>
-      <c r="L163" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="1">
@@ -7753,9 +7569,6 @@
       <c r="K166" t="s">
         <v>558</v>
       </c>
-      <c r="L166" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="1">
@@ -7852,9 +7665,6 @@
       <c r="K169" t="s">
         <v>558</v>
       </c>
-      <c r="L169" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="1">
@@ -7922,9 +7732,6 @@
       <c r="K171" t="s">
         <v>558</v>
       </c>
-      <c r="L171" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="1">
@@ -7957,9 +7764,6 @@
       <c r="K172" t="s">
         <v>558</v>
       </c>
-      <c r="L172" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="1">
@@ -7992,9 +7796,6 @@
       <c r="K173" t="s">
         <v>558</v>
       </c>
-      <c r="L173" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="1">
@@ -8062,9 +7863,6 @@
       <c r="K175" t="s">
         <v>558</v>
       </c>
-      <c r="L175" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="1">
@@ -8097,9 +7895,6 @@
       <c r="K176" t="s">
         <v>558</v>
       </c>
-      <c r="L176" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="1">
@@ -8132,9 +7927,6 @@
       <c r="K177" t="s">
         <v>558</v>
       </c>
-      <c r="L177" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="1">
@@ -8167,9 +7959,6 @@
       <c r="K178" t="s">
         <v>558</v>
       </c>
-      <c r="L178" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="1">
@@ -8269,9 +8058,6 @@
       <c r="K181" t="s">
         <v>558</v>
       </c>
-      <c r="L181" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="1">
@@ -8304,9 +8090,6 @@
       <c r="K182" t="s">
         <v>558</v>
       </c>
-      <c r="L182" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="1">
@@ -8339,9 +8122,6 @@
       <c r="K183" t="s">
         <v>558</v>
       </c>
-      <c r="L183" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="1">
@@ -8374,9 +8154,6 @@
       <c r="K184" t="s">
         <v>558</v>
       </c>
-      <c r="L184" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="1">
@@ -8441,9 +8218,6 @@
       <c r="K186" t="s">
         <v>558</v>
       </c>
-      <c r="L186" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="1">
@@ -8508,9 +8282,6 @@
       <c r="K188" t="s">
         <v>558</v>
       </c>
-      <c r="L188" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="1">
@@ -8543,9 +8314,6 @@
       <c r="K189" t="s">
         <v>558</v>
       </c>
-      <c r="L189" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="1">
@@ -8578,9 +8346,6 @@
       <c r="K190" t="s">
         <v>558</v>
       </c>
-      <c r="L190" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="1">
@@ -8645,9 +8410,6 @@
       <c r="K192" t="s">
         <v>558</v>
       </c>
-      <c r="L192" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="1">
@@ -8685,6 +8447,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L193"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
